--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/DataFit/ThickFilter.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/DataFit/ThickFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\DataFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB23A45-12F4-44AD-BEA8-6980597AACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10795222-83A8-4863-AA50-9F3307B7810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SRIM SIMULATIONS</t>
   </si>
@@ -54,28 +54,16 @@
     <t>Initial energy [keV]</t>
   </si>
   <si>
-    <t>Mean final energy [eV]</t>
-  </si>
-  <si>
     <t>Mean final energy [keV]</t>
   </si>
   <si>
-    <t>Error on mean final energy [eV]</t>
-  </si>
-  <si>
     <t>Error on mean final energy [keV]</t>
-  </si>
-  <si>
-    <t>Relative error on mean final energy [keV]</t>
   </si>
   <si>
     <t>Mean energy loss [keV]</t>
   </si>
   <si>
     <t>Error on mean energy loss [keV]</t>
-  </si>
-  <si>
-    <t>Number of ions transmitted [%]</t>
   </si>
   <si>
     <t>PROTONS VS THICK FILTERS</t>
@@ -85,10 +73,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,27 +146,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,65 +534,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FF5184-98A8-4C01-B982-DAA346D3A3E7}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,608 +596,356 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>30</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40</v>
       </c>
-      <c r="B9" s="5">
-        <v>359</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="4">
         <v>0.4</v>
       </c>
-      <c r="D9" s="5">
-        <v>249</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="4">
         <v>0.2</v>
       </c>
-      <c r="F9" s="4">
-        <v>0.69430000000000003</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="4">
         <v>39.6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="E9" s="4">
         <v>27.5</v>
       </c>
-      <c r="I9" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>50</v>
       </c>
-      <c r="B10" s="5">
-        <v>2632</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="4">
         <v>2.6</v>
       </c>
-      <c r="D10" s="5">
-        <v>883</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="4">
         <v>0.9</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.33550000000000002</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="4">
         <v>47.4</v>
       </c>
-      <c r="H10" s="7">
+      <c r="E10" s="4">
         <v>15.9</v>
       </c>
-      <c r="I10" s="6">
-        <v>0.7268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>60</v>
       </c>
-      <c r="B11" s="5">
-        <v>7239</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="4">
         <v>7.2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1296</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="4">
         <v>1.3</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="D11" s="4">
         <v>52.8</v>
       </c>
-      <c r="H11" s="7">
+      <c r="E11" s="4">
         <v>9.4</v>
       </c>
-      <c r="I11" s="6">
-        <v>0.94620000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>70</v>
       </c>
-      <c r="B12" s="5">
-        <v>13522</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="4">
         <v>13.5</v>
       </c>
-      <c r="D12" s="5">
-        <v>1483</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="4">
         <v>1.5</v>
       </c>
-      <c r="F12" s="4">
-        <v>0.10970000000000001</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="D12" s="4">
         <v>56.5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="E12" s="4">
         <v>6.2</v>
       </c>
-      <c r="I12" s="6">
-        <v>0.98460000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>80</v>
       </c>
-      <c r="B13" s="5">
-        <v>21122</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="4">
         <v>21.1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1611</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="4">
         <v>1.6</v>
       </c>
-      <c r="F13" s="4">
-        <v>7.6300000000000007E-2</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="D13" s="4">
         <v>58.9</v>
       </c>
-      <c r="H13" s="7">
+      <c r="E13" s="4">
         <v>4.5</v>
       </c>
-      <c r="I13" s="6">
-        <v>0.99390000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>90</v>
       </c>
-      <c r="B14" s="5">
-        <v>29877</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="4">
         <v>29.9</v>
       </c>
-      <c r="D14" s="5">
-        <v>1704</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="4">
         <v>1.7</v>
       </c>
-      <c r="F14" s="4">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="D14" s="4">
         <v>60.1</v>
       </c>
-      <c r="H14" s="7">
+      <c r="E14" s="4">
         <v>3.4</v>
       </c>
-      <c r="I14" s="6">
-        <v>0.99729999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>100</v>
       </c>
-      <c r="B15" s="5">
-        <v>39553</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="4">
         <v>39.6</v>
       </c>
-      <c r="D15" s="5">
-        <v>1821</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="C15" s="4">
         <v>1.8</v>
       </c>
-      <c r="F15" s="4">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="D15" s="4">
         <v>60.4</v>
       </c>
-      <c r="H15" s="7">
+      <c r="E15" s="4">
         <v>2.8</v>
       </c>
-      <c r="I15" s="6">
-        <v>0.99750000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>A15+20</f>
         <v>120</v>
       </c>
-      <c r="B16" s="5">
-        <v>60666</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4">
         <v>60.7</v>
       </c>
-      <c r="D16" s="5">
-        <v>1930</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16" s="4">
         <v>1.9</v>
       </c>
-      <c r="F16" s="4">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="D16" s="4">
         <v>59.3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="E16" s="4">
         <v>1.9</v>
       </c>
-      <c r="I16" s="8">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>A16+20</f>
         <v>140</v>
       </c>
-      <c r="B17" s="5">
-        <v>83081</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="4">
         <v>83.1</v>
       </c>
-      <c r="D17" s="5">
-        <v>1597</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="4">
         <v>1.6</v>
       </c>
-      <c r="F17" s="4">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="D17" s="4">
         <v>56.9</v>
       </c>
-      <c r="H17" s="7">
+      <c r="E17" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>A17+20</f>
         <v>160</v>
       </c>
-      <c r="B18" s="5">
-        <v>105977</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4">
         <v>106</v>
       </c>
-      <c r="D18" s="5">
-        <v>1397</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18" s="4">
         <v>1.4</v>
       </c>
-      <c r="F18" s="4">
-        <v>1.32E-2</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="D18" s="4">
         <v>54</v>
       </c>
-      <c r="H18" s="7">
+      <c r="E18" s="4">
         <v>0.7</v>
       </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f>A18+20</f>
         <v>180</v>
       </c>
-      <c r="B19" s="5">
-        <v>128775</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4">
         <v>128.80000000000001</v>
       </c>
-      <c r="D19" s="5">
-        <v>1222</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="C19" s="4">
         <v>1.2</v>
       </c>
-      <c r="F19" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="D19" s="4">
         <v>51.2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="E19" s="4">
         <v>0.5</v>
       </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>200</v>
       </c>
-      <c r="B20" s="5">
-        <v>147817</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="4">
         <v>147.80000000000001</v>
       </c>
-      <c r="D20" s="5">
-        <v>1096</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="4">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="D20" s="4">
         <v>52.2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="E20" s="4">
         <v>0.4</v>
       </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>210</v>
       </c>
-      <c r="B21" s="5">
-        <v>158887</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="4">
         <v>158.9</v>
       </c>
-      <c r="D21" s="5">
-        <v>1484</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C21" s="4">
         <v>1.5</v>
       </c>
-      <c r="F21" s="4">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="D21" s="4">
         <v>51.1</v>
       </c>
-      <c r="H21" s="7">
+      <c r="E21" s="4">
         <v>0.5</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>220</v>
       </c>
-      <c r="B22" s="5">
-        <v>170164</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="4">
         <v>170.2</v>
       </c>
-      <c r="D22" s="5">
-        <v>1369</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="4">
         <v>1.4</v>
       </c>
-      <c r="F22" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="D22" s="4">
         <v>49.8</v>
       </c>
-      <c r="H22" s="7">
+      <c r="E22" s="4">
         <v>0.4</v>
       </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>225</v>
       </c>
-      <c r="B23" s="5">
-        <v>175763</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="4">
         <v>175.8</v>
       </c>
-      <c r="D23" s="5">
-        <v>1225</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" s="4">
         <v>1.2</v>
       </c>
-      <c r="F23" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="D23" s="4">
         <v>49.2</v>
       </c>
-      <c r="H23" s="7">
+      <c r="E23" s="4">
         <v>0.3</v>
       </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>250</v>
       </c>
-      <c r="B24" s="5">
-        <v>203531</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="4">
         <v>203.5</v>
       </c>
-      <c r="D24" s="5">
-        <v>955</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="D24" s="4">
         <v>46.5</v>
       </c>
-      <c r="H24" s="7">
+      <c r="E24" s="4">
         <v>0.2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/DataFit/ThickFilter.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/DataFit/ThickFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\DataFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10795222-83A8-4863-AA50-9F3307B7810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695AF15-7BB3-4A9C-B2A9-E4F287636838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
